--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.6234958989644</v>
+        <v>0.8911683333333333</v>
       </c>
       <c r="H2">
-        <v>22.6234958989644</v>
+        <v>2.673505</v>
       </c>
       <c r="I2">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="J2">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2387.156889633376</v>
+        <v>100.26837202632</v>
       </c>
       <c r="R2">
-        <v>2387.156889633376</v>
+        <v>902.4153482368799</v>
       </c>
       <c r="S2">
-        <v>0.2353793809724349</v>
+        <v>0.008821810230315415</v>
       </c>
       <c r="T2">
-        <v>0.2353793809724349</v>
+        <v>0.008821810230315415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.6234958989644</v>
+        <v>0.8911683333333333</v>
       </c>
       <c r="H3">
-        <v>22.6234958989644</v>
+        <v>2.673505</v>
       </c>
       <c r="I3">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="J3">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2402.060875085326</v>
+        <v>94.74408547444332</v>
       </c>
       <c r="R3">
-        <v>2402.060875085326</v>
+        <v>852.69676926999</v>
       </c>
       <c r="S3">
-        <v>0.2368489495981656</v>
+        <v>0.008335772543319291</v>
       </c>
       <c r="T3">
-        <v>0.2368489495981656</v>
+        <v>0.008335772543319292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.6234958989644</v>
+        <v>0.8911683333333333</v>
       </c>
       <c r="H4">
-        <v>22.6234958989644</v>
+        <v>2.673505</v>
       </c>
       <c r="I4">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="J4">
-        <v>0.7485365492520198</v>
+        <v>0.02693425114262819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>2802.246590855466</v>
+        <v>111.1212546639811</v>
       </c>
       <c r="R4">
-        <v>2802.246590855466</v>
+        <v>1000.09129197583</v>
       </c>
       <c r="S4">
-        <v>0.2763082186814194</v>
+        <v>0.009776668368993477</v>
       </c>
       <c r="T4">
-        <v>0.2763082186814194</v>
+        <v>0.009776668368993479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.60013970249164</v>
+        <v>24.359699</v>
       </c>
       <c r="H5">
-        <v>7.60013970249164</v>
+        <v>73.07909699999999</v>
       </c>
       <c r="I5">
-        <v>0.2514634507479802</v>
+        <v>0.7362360466408275</v>
       </c>
       <c r="J5">
-        <v>0.2514634507479802</v>
+        <v>0.7362360466408276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>801.9417482604695</v>
+        <v>2740.792362589008</v>
       </c>
       <c r="R5">
-        <v>801.9417482604695</v>
+        <v>24667.13126330107</v>
       </c>
       <c r="S5">
-        <v>0.07907337515235194</v>
+        <v>0.2411403477969229</v>
       </c>
       <c r="T5">
-        <v>0.07907337515235194</v>
+        <v>0.241140347796923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.60013970249164</v>
+        <v>24.359699</v>
       </c>
       <c r="H6">
-        <v>7.60013970249164</v>
+        <v>73.07909699999999</v>
       </c>
       <c r="I6">
-        <v>0.2514634507479802</v>
+        <v>0.7362360466408275</v>
       </c>
       <c r="J6">
-        <v>0.2514634507479802</v>
+        <v>0.7362360466408276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>806.948594773696</v>
+        <v>2589.788391105733</v>
       </c>
       <c r="R6">
-        <v>806.948594773696</v>
+        <v>23308.0955199516</v>
       </c>
       <c r="S6">
-        <v>0.07956706219823699</v>
+        <v>0.2278547189038985</v>
       </c>
       <c r="T6">
-        <v>0.07956706219823699</v>
+        <v>0.2278547189038985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>24.359699</v>
+      </c>
+      <c r="H7">
+        <v>73.07909699999999</v>
+      </c>
+      <c r="I7">
+        <v>0.7362360466408275</v>
+      </c>
+      <c r="J7">
+        <v>0.7362360466408276</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N7">
+        <v>374.074966</v>
+      </c>
+      <c r="O7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q7">
+        <v>3037.451191731745</v>
+      </c>
+      <c r="R7">
+        <v>27337.0607255857</v>
+      </c>
+      <c r="S7">
+        <v>0.2672409799400061</v>
+      </c>
+      <c r="T7">
+        <v>0.2672409799400062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.835938333333334</v>
+      </c>
+      <c r="H8">
+        <v>23.507815</v>
+      </c>
+      <c r="I8">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="J8">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>112.513392</v>
+      </c>
+      <c r="N8">
+        <v>337.540176</v>
+      </c>
+      <c r="O8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="P8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="Q8">
+        <v>881.64800138616</v>
+      </c>
+      <c r="R8">
+        <v>7934.83201247544</v>
+      </c>
+      <c r="S8">
+        <v>0.07756913970961797</v>
+      </c>
+      <c r="T8">
+        <v>0.07756913970961797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.60013970249164</v>
-      </c>
-      <c r="H7">
-        <v>7.60013970249164</v>
-      </c>
-      <c r="I7">
-        <v>0.2514634507479802</v>
-      </c>
-      <c r="J7">
-        <v>0.2514634507479802</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="N7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="O7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="P7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="Q7">
-        <v>941.3870281784069</v>
-      </c>
-      <c r="R7">
-        <v>941.3870281784069</v>
-      </c>
-      <c r="S7">
-        <v>0.09282301339739121</v>
-      </c>
-      <c r="T7">
-        <v>0.09282301339739121</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.835938333333334</v>
+      </c>
+      <c r="H9">
+        <v>23.507815</v>
+      </c>
+      <c r="I9">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="J9">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>106.314466</v>
+      </c>
+      <c r="N9">
+        <v>318.943398</v>
+      </c>
+      <c r="O9">
+        <v>0.3094859589441663</v>
+      </c>
+      <c r="P9">
+        <v>0.3094859589441664</v>
+      </c>
+      <c r="Q9">
+        <v>833.0735995172633</v>
+      </c>
+      <c r="R9">
+        <v>7497.66239565537</v>
+      </c>
+      <c r="S9">
+        <v>0.07329546749694854</v>
+      </c>
+      <c r="T9">
+        <v>0.07329546749694855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.835938333333334</v>
+      </c>
+      <c r="H10">
+        <v>23.507815</v>
+      </c>
+      <c r="I10">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="J10">
+        <v>0.2368297022165442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N10">
+        <v>374.074966</v>
+      </c>
+      <c r="O10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q10">
+        <v>977.0761218732546</v>
+      </c>
+      <c r="R10">
+        <v>8793.68509685929</v>
+      </c>
+      <c r="S10">
+        <v>0.0859650950099777</v>
+      </c>
+      <c r="T10">
+        <v>0.08596509500997772</v>
       </c>
     </row>
   </sheetData>
